--- a/biology/Médecine/Muscle_auriculaire_antérieur/Muscle_auriculaire_antérieur.xlsx
+++ b/biology/Médecine/Muscle_auriculaire_antérieur/Muscle_auriculaire_antérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_auriculaire_ant%C3%A9rieur</t>
+          <t>Muscle_auriculaire_antérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle auriculaire antérieur est le plus petit des trois muscles auriculaires.
 Il est mince, aplati et en forme d'éventail. Ses fibres sont pâles et indistinctes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_auriculaire_ant%C3%A9rieur</t>
+          <t>Muscle_auriculaire_antérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,17 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Il naît du bord latéral de la galéa aponévrotique.
-Trajet
-Les fibres convergent en se dirigeant en bas et en arrière.
-Terminaison
-Il se termine sur l'épine de l'hélix.
-Innervation
-Le muscle auriculaire antérieur est innervé par la branche temporale du nerf facial (VII)[1],[2].
-Il peut également recevoir quelques petites branches du nerf auriculo-temporal, branche du nerf mandibulaire, elle-même branche du nerf trijumeau (V)[3].
-Rapports
-L'artère temporale superficielle, une branche de l'artère carotide externe, passe sous le muscle auriculaire antérieur pour alimenter le pavillon de l'oreille[4] .
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il naît du bord latéral de la galéa aponévrotique.
 </t>
         </is>
       </c>
@@ -535,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_auriculaire_ant%C3%A9rieur</t>
+          <t>Muscle_auriculaire_antérieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,10 +558,161 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fibres convergent en se dirigeant en bas et en arrière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muscle_auriculaire_antérieur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_auriculaire_ant%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se termine sur l'épine de l'hélix.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscle_auriculaire_antérieur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_auriculaire_ant%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle auriculaire antérieur est innervé par la branche temporale du nerf facial (VII),.
+Il peut également recevoir quelques petites branches du nerf auriculo-temporal, branche du nerf mandibulaire, elle-même branche du nerf trijumeau (V).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_auriculaire_antérieur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_auriculaire_ant%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rapports</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère temporale superficielle, une branche de l'artère carotide externe, passe sous le muscle auriculaire antérieur pour alimenter le pavillon de l'oreille .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_auriculaire_antérieur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_auriculaire_ant%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle auriculaire antérieur dilate et tire le pavillon de l'oreille vers le haut et vers l'avant.
 </t>
